--- a/_CONCAT_MRPA_SSO.xlsx
+++ b/_CONCAT_MRPA_SSO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580DCFB-1ECF-4010-B9F1-E94148867E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCF4E9-4EC1-4E19-B580-A7725A634BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1950" windowWidth="26775" windowHeight="17745" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="120" yWindow="570" windowWidth="28770" windowHeight="18420" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>Date Completed:</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Document Review</t>
   </si>
   <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>Nominated Authority</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -81,308 +75,274 @@
     <t>IP</t>
   </si>
   <si>
+    <t>SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>Each lot</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC Drawings_x000D_
+_x000D_
+Section 610.07_x000D_
+Table 610.071_x000D_
+</t>
+  </si>
+  <si>
+    <t>Concrete Mix is Registered with VicRoads._x000D_
+_x000D_
+32MPa concrete to be used as per IFC drawings.</t>
+  </si>
+  <si>
+    <t>Each Mix</t>
+  </si>
+  <si>
+    <t>Supplier Certificate of  Compliance</t>
+  </si>
+  <si>
+    <t>Steel Columns, Cladding, Handrails, etc</t>
+  </si>
+  <si>
+    <t>IFC Drawings_x000D_
+_x000D_
+AS41000_x000D_
+_x000D_
+AS1163</t>
+  </si>
+  <si>
+    <t>All Steel must comply with Australian Standards._x000D_
+Steel section sizes must be checked on site._x000D_
+_x000D_
+Steel posts to be CHS with a grade of C250</t>
+  </si>
+  <si>
+    <t>Document review_x000D_
+_x000D_
+Visual and Measure</t>
+  </si>
+  <si>
+    <t>All elements</t>
+  </si>
+  <si>
+    <t>Survey Set-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC Drawings_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Survey to set out the following but not limited to: existing services, post locations, refuge bays_x000D_
+_x000D_
+Offset checked against the running edge prior to_x000D_
+installation of posts.</t>
+  </si>
+  <si>
+    <t>Measure_x000D_
+_x000D_
+Visual</t>
+  </si>
+  <si>
+    <t>Each element</t>
+  </si>
+  <si>
     <t>Surveyor_x000D_
 _x000D_
-SE/PE/SPE</t>
-  </si>
-  <si>
-    <t>SE/PE/SPE</t>
-  </si>
-  <si>
-    <t>Non-conformance Report (NCR) Closure</t>
-  </si>
-  <si>
-    <t>MRPA Quality Management Plan</t>
-  </si>
-  <si>
-    <t>Once, prior to closure of this lot / element / Work area</t>
-  </si>
-  <si>
-    <t>HP*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFC Drawings_x000D_
+SE/PE</t>
+  </si>
+  <si>
+    <t>This ITP</t>
+  </si>
+  <si>
+    <t>Excavation works</t>
+  </si>
+  <si>
+    <t>IFC Drawings_x000D_
+_x000D_
+L1-CHE-STD-005</t>
+  </si>
+  <si>
+    <t>Excavation for post foundation must not undermine footing of existing structures._x000D_
+_x000D_
+Follow asset owners guidelines for work around their service._x000D_
+_x000D_
+Excavation must use Non Distructive Digging in the rail corridor</t>
+  </si>
+  <si>
+    <t>Ground Conditions</t>
+  </si>
+  <si>
+    <t>All post (fence and gate) foundations to be inspected by the site team prior to installing the posts. All foundations are to be free of water and loose material. _x000D_
+_x000D_
+If the ground material on site does not meet the design assumptions, the Geotechnical Engineer shall be notified to determine if design change is required.</t>
+  </si>
+  <si>
+    <t>Each post</t>
+  </si>
+  <si>
+    <t>MTM OHW Structures</t>
+  </si>
+  <si>
+    <t>Fencing must be a minimum 2m away from OHW Structures. _x000D_
+_x000D_
+Where temporary fence is in proximity of the OHW Structure, the OHW Structure is to be cladded with timber for a minimum height of 2.4m from ground level.</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Each Overhead</t>
+  </si>
+  <si>
+    <t>Fence Post Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32MPa concrete._x000D_
+_x000D_
+Footing to be a min. 1m clear from proposed TTC footing_x000D_
+_x000D_
+Typical Footing:_x000D_
+Footing dimension 900mm deep, cross section 300mm X 300mm_x000D_
+_x000D_
+DN80 MS Pipe (88.9 X 4CHS) to be installed full depth._x000D_
+_x000D_
+Alternative Strip Footing:_x000D_
+800x800x300mm thick_x000D_
+_x000D_
+101.6 x 4.0 CHS sleeve to be cast into footing._x000D_
+_x000D_
+150x150x5 thick base plate welded to sleeve._x000D_
+_x000D_
+Refer to IFC drawing for reinforcement details._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to commencing any activity </t>
-  </si>
-  <si>
-    <t>Conqa HP Release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for correct documentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual inspection </t>
-  </si>
-  <si>
-    <t>SE/Site Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each lot </t>
-  </si>
-  <si>
-    <t>Each lot</t>
-  </si>
-  <si>
-    <t>Drainage Pipes</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.04</t>
-  </si>
-  <si>
-    <t>Subsurface drainage pipes:                                   Category 1: 100mm DIA Class 1000 corrugated perforated plastic pipe. Perforation size of maximum 1.5mm width and minimum length of 150 mm per m2._x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</t>
-  </si>
-  <si>
-    <t>Verify, Document Review</t>
-  </si>
-  <si>
-    <t>Each Lot prior to work start</t>
-  </si>
-  <si>
-    <t>Granular Filter Material</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.05_x000D_
-Table 702.051</t>
-  </si>
-  <si>
-    <t>Granular filter material:_x000D_
-Filter sand to be as per IFC drawings and comply with Table 702.051 and Section 801. Supplier to be accredited with VicRoads._x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</t>
-  </si>
-  <si>
-    <t>No Fines Concrete</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.05</t>
-  </si>
-  <si>
-    <t>No Fines Concrete: _x000D_
-Shall be grade B4 in accordance with RC500.22, section 6.3 and shall comply with VicRoads Cl 702.05 (e)_x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</t>
-  </si>
-  <si>
-    <t>Geotextile Filter</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.06_x000D_
-Table 702.061</t>
-  </si>
-  <si>
-    <t>Geotextiles:_x000D_
-Shall comply with VicRoas Cl 702.06 and Table 702.061 of the requirements for Geotextile Filter_x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</t>
-  </si>
-  <si>
-    <t>SSD Pits, Pit Lids, Flushout Risers</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-SD-1051_x000D_
-SD-1611_x000D_
-SD-1631</t>
-  </si>
-  <si>
-    <t>Subsurface drain pits: shall be Type S1 (as per SD 1611)._x000D_
-_x000D_
-Pit Lids shall be: Type M3 circular lid (as per SD 1051) for Type S1 pit._x000D_
-_x000D_
-Flushout risers: As per VicRoads, SD 1631   _x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</t>
-  </si>
-  <si>
-    <t>Ensure that all employees and subcontractors are:_x000D_
-- using the correct and complete set of drawings _x000D_
--all drawings are the latest revision (as per TeamBinder)</t>
-  </si>
-  <si>
-    <t>This ITP Signed-off</t>
-  </si>
-  <si>
-    <t>Survey Set Out</t>
-  </si>
-  <si>
-    <t>IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey to set out Subsurface Drainage line._x000D_
-_x000D_
-</t>
-  </si>
-  <si>
-    <t>Each Lot</t>
-  </si>
-  <si>
-    <t>SE/Site Supervisor_x000D_
-Surveyor</t>
-  </si>
-  <si>
-    <t>Trench Excavation</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.08</t>
-  </si>
-  <si>
-    <t>The bottom of the trench shall be compacted and shall be not more than 50 mm below the specified level of the invert of the pipe.  _x000D_
-_x000D_
-There shall be no departures from the grade of the base of the trench that would allow ponding of water.  _x000D_
-_x000D_
-Excess trench excavation shall be made good by filling back to grade with compacted material of permeability similar to that of the surrounding material and any loose material shall be removed._x000D_
-_x000D_
-The base of the trench shall be inspected by a superintendent to verify compliance with 702.08 prior to placing beding in completed excavations.</t>
-  </si>
-  <si>
-    <t>Visual Inspection</t>
-  </si>
-  <si>
-    <t>SE, NA (Nominated Authority)</t>
-  </si>
-  <si>
-    <t>Placement of bedding</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.09 c)</t>
-  </si>
-  <si>
-    <t>Bedding of granular filter material of thickness between 25 mm and 50mm placed across bottom of trench and screeded or graded to level._x000D_
-_x000D_
-Attach: bedding material delivery dockets</t>
-  </si>
-  <si>
-    <t>Pipe and Geotextile Installation (if required)</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.03_x000D_
-Cl 702.09</t>
-  </si>
-  <si>
-    <t>Pipe shall be placed centrally in the trench on the prepared bedding and held firmly in place. Slotted pipes shall be laid with the opening in the lower half of the  pipe. Pipes, geocompotises and geotextiles placed, joined and lapped in accordance with specified requirements._x000D_
-_x000D_
-_x000D_
-Attach: Suburface pipe and geotextile delievery dockets (if applicable)</t>
-  </si>
-  <si>
-    <t>Backfill Installation (Granular Filter Material)</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.09 (g)</t>
-  </si>
-  <si>
-    <t>Material shall be placed moist and compacted in layers not exceeding 300mm. _x000D_
-_x000D_
-The method of compaction shall be in accordance with the procedures and reviewed by the NA._x000D_
-_x000D_
-_x000D_
-Attach: Backfill Delivery Dockets</t>
-  </si>
-  <si>
-    <t>SE, NA</t>
-  </si>
-  <si>
-    <t>Backfill Installation (No Fines)</t>
-  </si>
-  <si>
-    <t>All subsurface drainage beneath trafficable areas shall have no fines concrete filter medium. No-fines concrete placed and compacted within 1 hour of mixing._x000D_
-_x000D_
-Attach: Backfill Delivery Dockets</t>
-  </si>
-  <si>
-    <t>Install Pits and Flushouts</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.10</t>
-  </si>
-  <si>
-    <t>Subsurface drains shall have access points at the start and finish of each run._x000D_
-_x000D_
-Subsurface drain end shall be located min. 100mm above the invert of the stormwater drainage pit outlet unless noted otherwise on drawings._x000D_
-_x000D_
-Inspection openings shall be provided between 100m and 150m intervals unless noted otherwise on drawings._x000D_
-_x000D_
-Attach: Pit and Flushout Delivery Dockets</t>
-  </si>
-  <si>
-    <t>Marker Posts</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.11</t>
-  </si>
-  <si>
-    <t>At all fill batter and drain outlets, supply and erect marker posts as shown on drawings_x000D_
-_x000D_
-Attach: Marker Post Delivery Dockets</t>
-  </si>
-  <si>
-    <t>Each outlet</t>
-  </si>
-  <si>
-    <t>As Built Information</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.03</t>
-  </si>
-  <si>
-    <t>The invert of the sursurface drainage pipe or the geocomposite drain shall not be more than 25mm from the specified level and not more than 50mm from the specified line_x000D_
-Changes of grade shall not be abrupt, or occur at a rate exceeding 10mm in any 3m length._x000D_
-_x000D_
-Attach: Survey Conformance Report</t>
-  </si>
-  <si>
-    <t>Flushing</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.09 (h)</t>
-  </si>
-  <si>
-    <t>Flushing test shall be witnessed the NA and shall confirm that the drainage line is free of obstruction. To be completed after installation of kerb and channel, barriers and road furniture._x000D_
-_x000D_
-Attach: Flushing Tests Records</t>
-  </si>
-  <si>
-    <t>Inspection of Subsurface Drainage - CCTV</t>
-  </si>
-  <si>
-    <t>VicRoads:_x000D_
-Cl 702.09 (i)</t>
-  </si>
-  <si>
-    <t>All subsurface drainage lines shall be inspected, after the flushing test as per clause 702.09(h), and prior to placement of asphalt by an independent testing organisation using closed circuit television (CCTV) to verify that the flow of water is free from obstruction and to check for visible signs of defects._x000D_
-_x000D_
-Attach: CCTV Inspection Record</t>
-  </si>
-  <si>
-    <t>Ensure that any NCRs pertaining to the lot / element / Work area that This ITP Signed-off covers, have been closed in CAMs.</t>
+    <t>Each footing</t>
+  </si>
+  <si>
+    <t>Post and concrete dockets</t>
+  </si>
+  <si>
+    <t>Fence Post Installation</t>
+  </si>
+  <si>
+    <t>Maximum post spacing to be 2.7m ± 250mm, two spans at 1350CTRS at gates, at the ends and at Refuge bays._x000D_
+_x000D_
+An individual fence space may be increased to Max. 3100mm locally to avois clashes with services._x000D_
+_x000D_
+Minimum offsets from centre of the rail to the fence: 3000mm_x000D_
+Alignment tolerance: +20mm to -0 (- being closer to the track)_x000D_
+_x000D_
+Max. post height 1800mm above ground level._x000D_
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+_x000D_
+Concrete Dockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Wire Mesh Installation </t>
+  </si>
+  <si>
+    <t>IFC Drawings</t>
+  </si>
+  <si>
+    <t>Chain-wire mesh 1800x50x2.50 to be fixed to fence post with 1.57mm tie wire._x000D_
+_x000D_
+Chain shall be tightened and securely fastened to posts at max. 400 crs and tension wires at max. 500 intervals with 2.5 dia. galv. tire wire._x000D_
+_x000D_
+3 NO. W10Z TWIN-STRAND 3.15mm DIA. WIRES TWISTED BETWEEN POSTS. TENSIONED TO 1kN.</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+_x000D_
+Delivery dockets</t>
+  </si>
+  <si>
+    <t>Bracing</t>
+  </si>
+  <si>
+    <t>48.3 X 4 CHS brace at end bays and corners fixed each end via approved proprietary post and rail clamps._x000D_
+_x000D_
+Bracing to be installed on both sides of the fence at the fence corners.</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+_x000D_
+Steel delivery dockts</t>
+  </si>
+  <si>
+    <t>Refuge Installation</t>
+  </si>
+  <si>
+    <t>Refuge Access to only open from track side._x000D_
+_x000D_
+No chain wire mesh to be installed at refuge access._x000D_
+_x000D_
+Refuge Access to be located every 20m max. along the fence._x000D_
+_x000D_
+50dia PVC pipe push out bars to be installed. PVC tubes to be pushed off from track side only.</t>
+  </si>
+  <si>
+    <t>Visual/Measure</t>
+  </si>
+  <si>
+    <t>Every 20m Max.</t>
+  </si>
+  <si>
+    <t>Gate Post Foundation</t>
+  </si>
+  <si>
+    <t>350mm DIA. PILE_x000D_
+1300mm DEPTH_x000D_
+1200mm POST EMBEDMENT_x000D_
+_x000D_
+101.6 x 4 CHS GATE POST._x000D_
+1200 EMBEDMENT_x000D_
+_x000D_
+32MPa Concrete</t>
+  </si>
+  <si>
+    <t>Post and Concrete Dockets</t>
+  </si>
+  <si>
+    <t>Gate Installation - Post</t>
+  </si>
+  <si>
+    <t>3000mm nominal clear between the gate posts._x000D_
+_x000D_
+Minimum offsets from centre of the rail to the fence: 3000mm_x000D_
+Alignment tolerance: +20mm to -0 (- being closer to the track)_x000D_
+_x000D_
+Max. post height 1800mm above ground level._x000D_
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</t>
+  </si>
+  <si>
+    <t>Each Post</t>
+  </si>
+  <si>
+    <t>Delivery Dockets</t>
+  </si>
+  <si>
+    <t>Gate Installation - Gate</t>
+  </si>
+  <si>
+    <t>2 NO. 1800mm (H) x 1500mm (W) ROUND TOP GATE_x000D_
+_x000D_
+MINIMUM 2 NO. FENCE BAYS MUST BE PRESENT EITHER SIDE OF GATE TO ALLOW BRACING TO BE INSTALLED.</t>
+  </si>
+  <si>
+    <t>Each Gate</t>
+  </si>
+  <si>
+    <t>Fence Height and Track Clearance</t>
+  </si>
+  <si>
+    <t>Posts are to be checked for verticality and ensure offset is not less than required from_x000D_
+near face of post to centreline of track or as shown on alignment drawings.</t>
   </si>
 </sst>
 </file>
@@ -430,14 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:Y163"/>
+  <dimension ref="A1:W136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,13 +738,13 @@
     <col min="20" max="20" width="1.42578125" customWidth="1"/>
     <col min="21" max="21" width="3.42578125" customWidth="1"/>
     <col min="22" max="22" width="1.42578125" customWidth="1"/>
-    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="23" max="23" width="47" customWidth="1"/>
     <col min="24" max="24" width="1.7109375" customWidth="1"/>
     <col min="25" max="25" width="3.5703125" customWidth="1"/>
     <col min="27" max="27" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -804,65 +763,60 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>2.1 Drainage Pipes</v>
+        <v>2.1 Concrete</v>
       </c>
       <c r="L2" t="str">
         <f>"REFERENCE: "&amp;C2</f>
-        <v>REFERENCE: IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.04</v>
+        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
+_x000D_
+Section 610.07_x000D_
+Table 610.071_x000D_
+</v>
       </c>
       <c r="M2" t="str">
         <f>"ACCEPTANCE CRITERIA: "&amp;D2</f>
-        <v>ACCEPTANCE CRITERIA: Subsurface drainage pipes:                                   Category 1: 100mm DIA Class 1000 corrugated perforated plastic pipe. Perforation size of maximum 1.5mm width and minimum length of 150 mm per m2._x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</v>
+        <v>ACCEPTANCE CRITERIA: Concrete Mix is Registered with VicRoads._x000D_
+_x000D_
+32MPa concrete to be used as per IFC drawings.</v>
       </c>
       <c r="N2" t="str">
         <f>"METHOD: "&amp;E2</f>
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Document Review</v>
       </c>
       <c r="O2" t="str">
         <f>"FREQUENCY: "&amp;F2</f>
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v>FREQUENCY: Each Mix</v>
       </c>
       <c r="P2" t="str">
         <f>"CATEGORY: "&amp;G2</f>
@@ -870,376 +824,371 @@
       </c>
       <c r="Q2" t="str">
         <f>"RESPONSIBILITY: "&amp;H2</f>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R2" t="str">
         <f>"VERIFYING DOCUMENTS: "&amp;I2</f>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: Supplier Certificate of  Compliance</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
       </c>
       <c r="W2" t="str" cm="1">
-        <f t="array" ref="W2:W163">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:S44)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>2.1 Drainage Pipes</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="W2:W136">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:S44)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>2.1 Concrete</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K42" si="0">A3&amp;" "&amp;B3</f>
-        <v>2.2 Granular Filter Material</v>
+        <f t="shared" ref="K3:K16" si="0">A3&amp;" "&amp;B3</f>
+        <v>2.2 Steel Columns, Cladding, Handrails, etc</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L42" si="1">"REFERENCE: "&amp;C3</f>
+        <f t="shared" ref="L3:L16" si="1">"REFERENCE: "&amp;C3</f>
         <v>REFERENCE: IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.05_x000D_
-Table 702.051</v>
+_x000D_
+AS41000_x000D_
+_x000D_
+AS1163</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M42" si="2">"ACCEPTANCE CRITERIA: "&amp;D3</f>
-        <v>ACCEPTANCE CRITERIA: Granular filter material:_x000D_
-Filter sand to be as per IFC drawings and comply with Table 702.051 and Section 801. Supplier to be accredited with VicRoads._x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</v>
+        <f t="shared" ref="M3:M16" si="2">"ACCEPTANCE CRITERIA: "&amp;D3</f>
+        <v>ACCEPTANCE CRITERIA: All Steel must comply with Australian Standards._x000D_
+Steel section sizes must be checked on site._x000D_
+_x000D_
+Steel posts to be CHS with a grade of C250</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N42" si="3">"METHOD: "&amp;E3</f>
-        <v>METHOD: Verify, Document Review</v>
+        <f t="shared" ref="N3:N16" si="3">"METHOD: "&amp;E3</f>
+        <v>METHOD: Document review_x000D_
+_x000D_
+Visual and Measure</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O42" si="4">"FREQUENCY: "&amp;F3</f>
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <f t="shared" ref="O3:O16" si="4">"FREQUENCY: "&amp;F3</f>
+        <v>FREQUENCY: All elements</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P42" si="5">"CATEGORY: "&amp;G3</f>
-        <v>CATEGORY: HP</v>
+        <f t="shared" ref="P3:P16" si="5">"CATEGORY: "&amp;G3</f>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q42" si="6">"RESPONSIBILITY: "&amp;H3</f>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <f t="shared" ref="Q3:Q16" si="6">"RESPONSIBILITY: "&amp;H3</f>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R42" si="7">"VERIFYING DOCUMENTS: "&amp;I3</f>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <f t="shared" ref="R3:R16" si="7">"VERIFYING DOCUMENTS: "&amp;I3</f>
+        <v>VERIFYING DOCUMENTS: Supplier Certificate of  Compliance</v>
       </c>
       <c r="S3" t="s">
         <v>0</v>
       </c>
       <c r="W3" t="str">
         <v>REFERENCE: IFC Drawings
-VicRoads:
-Cl 702.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+Section 610.07
+Table 610.071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>3</v>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>2.3 No Fines Concrete</v>
+        <v>3.1 Survey Set-out</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.05</v>
+        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
+_x000D_
+</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: No Fines Concrete: _x000D_
-Shall be grade B4 in accordance with RC500.22, section 6.3 and shall comply with VicRoads Cl 702.05 (e)_x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</v>
+        <v>ACCEPTANCE CRITERIA: Survey to set out the following but not limited to: existing services, post locations, refuge bays_x000D_
+_x000D_
+Offset checked against the running edge prior to_x000D_
+installation of posts.</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Measure_x000D_
+_x000D_
+Visual</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v>FREQUENCY: Each element</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: Surveyor_x000D_
+_x000D_
+SE/PE</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S4" t="s">
         <v>0</v>
       </c>
       <c r="W4" t="str">
-        <v>ACCEPTANCE CRITERIA: Subsurface drainage pipes:                                   Category 1: 100mm DIA Class 1000 corrugated perforated plastic pipe. Perforation size of maximum 1.5mm width and minimum length of 150 mm per m2.
-Enter: Teambinder Material Approval number
-[free text box]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: Concrete Mix is Registered with VicRoads.
+32MPa concrete to be used as per IFC drawings.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>2.4 Geotextile Filter</v>
+        <v>4.1 Excavation works</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>REFERENCE: IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.06_x000D_
-Table 702.061</v>
+_x000D_
+L1-CHE-STD-005</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Geotextiles:_x000D_
-Shall comply with VicRoas Cl 702.06 and Table 702.061 of the requirements for Geotextile Filter_x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</v>
+        <v>ACCEPTANCE CRITERIA: Excavation for post foundation must not undermine footing of existing structures._x000D_
+_x000D_
+Follow asset owners guidelines for work around their service._x000D_
+_x000D_
+Excavation must use Non Distructive Digging in the rail corridor</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Visual</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v xml:space="preserve">FREQUENCY: </v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S5" t="s">
         <v>0</v>
       </c>
       <c r="W5" t="str">
-        <v>METHOD: Verify, Document Review</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>METHOD: Document Review</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>2.5 SSD Pits, Pit Lids, Flushout Risers</v>
+        <v>4.2 Ground Conditions</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: IFC Drawings_x000D_
-SD-1051_x000D_
-SD-1611_x000D_
-SD-1631</v>
+        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
+_x000D_
+</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Subsurface drain pits: shall be Type S1 (as per SD 1611)._x000D_
-_x000D_
-Pit Lids shall be: Type M3 circular lid (as per SD 1051) for Type S1 pit._x000D_
-_x000D_
-Flushout risers: As per VicRoads, SD 1631   _x000D_
-_x000D_
-Enter: Teambinder Material Approval number_x000D_
-[free text box]</v>
+        <v>ACCEPTANCE CRITERIA: All post (fence and gate) foundations to be inspected by the site team prior to installing the posts. All foundations are to be free of water and loose material. _x000D_
+_x000D_
+If the ground material on site does not meet the design assumptions, the Geotechnical Engineer shall be notified to determine if design change is required.</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Visual</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v>FREQUENCY: Each post</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S6" t="s">
         <v>0</v>
       </c>
       <c r="W6" t="str">
-        <v>FREQUENCY: Each Lot prior to work start</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>FREQUENCY: Each Mix</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">3.1 Check for correct documentation </v>
+        <v>4.3 MTM OHW Structures</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
-</v>
+        <v>REFERENCE: IFC Drawings_x000D_
+_x000D_
+L1-CHE-STD-005</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:_x000D_
-- using the correct and complete set of drawings _x000D_
--all drawings are the latest revision (as per TeamBinder)</v>
+        <v>ACCEPTANCE CRITERIA: Fencing must be a minimum 2m away from OHW Structures. _x000D_
+_x000D_
+Where temporary fence is in proximity of the OHW Structure, the OHW Structure is to be cladded with timber for a minimum height of 2.4m from ground level.</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Visual inspection </v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FREQUENCY: Prior to commencing any activity </v>
+        <v>FREQUENCY: Each Overhead</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: WP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="6"/>
@@ -1247,7 +1196,7 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S7" t="s">
         <v>0</v>
@@ -1256,57 +1205,72 @@
         <v>CATEGORY: HP</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>4.1 Survey Set Out</v>
+        <v>4.4 Fence Post Foundation</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>REFERENCE: IFC Drawings_x000D_
-VicRoads:_x000D_
-Cl 702.03</v>
+_x000D_
+L1-CHE-STD-005</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ACCEPTANCE CRITERIA: Survey to set out Subsurface Drainage line._x000D_
-_x000D_
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: 32MPa concrete._x000D_
+_x000D_
+Footing to be a min. 1m clear from proposed TTC footing_x000D_
+_x000D_
+Typical Footing:_x000D_
+Footing dimension 900mm deep, cross section 300mm X 300mm_x000D_
+_x000D_
+DN80 MS Pipe (88.9 X 4CHS) to be installed full depth._x000D_
+_x000D_
+Alternative Strip Footing:_x000D_
+800x800x300mm thick_x000D_
+_x000D_
+101.6 x 4.0 CHS sleeve to be cast into footing._x000D_
+_x000D_
+150x150x5 thick base plate welded to sleeve._x000D_
+_x000D_
+Refer to IFC drawing for reinforcement details._x000D_
 </v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Visual inspection </v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot</v>
+        <v>FREQUENCY: Each footing</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="5"/>
@@ -1314,144 +1278,149 @@
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/Site Supervisor_x000D_
-Surveyor</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Post and concrete dockets</v>
       </c>
       <c r="S8" t="s">
         <v>0</v>
       </c>
       <c r="W8" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>5.1 Trench Excavation</v>
+        <v>4.5 Fence Post Installation</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.08</v>
+        <v>REFERENCE: IFC Drawings_x000D_
+_x000D_
+L1-CHE-STD-005</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: The bottom of the trench shall be compacted and shall be not more than 50 mm below the specified level of the invert of the pipe.  _x000D_
-_x000D_
-There shall be no departures from the grade of the base of the trench that would allow ponding of water.  _x000D_
-_x000D_
-Excess trench excavation shall be made good by filling back to grade with compacted material of permeability similar to that of the surrounding material and any loose material shall be removed._x000D_
-_x000D_
-The base of the trench shall be inspected by a superintendent to verify compliance with 702.08 prior to placing beding in completed excavations.</v>
+        <v>ACCEPTANCE CRITERIA: Maximum post spacing to be 2.7m ± 250mm, two spans at 1350CTRS at gates, at the ends and at Refuge bays._x000D_
+_x000D_
+An individual fence space may be increased to Max. 3100mm locally to avois clashes with services._x000D_
+_x000D_
+Minimum offsets from centre of the rail to the fence: 3000mm_x000D_
+Alignment tolerance: +20mm to -0 (- being closer to the track)_x000D_
+_x000D_
+Max. post height 1800mm above ground level._x000D_
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual Inspection</v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each post</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE, NA (Nominated Authority)</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+_x000D_
+Concrete Dockets</v>
       </c>
       <c r="S9" t="s">
         <v>0</v>
       </c>
       <c r="W9" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>VERIFYING DOCUMENTS: Supplier Certificate of  Compliance</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>5.2 Placement of bedding</v>
+        <v xml:space="preserve">4.6 Chain Wire Mesh Installation </v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.09 c)</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Bedding of granular filter material of thickness between 25 mm and 50mm placed across bottom of trench and screeded or graded to level._x000D_
-_x000D_
-Attach: bedding material delivery dockets</v>
+        <v>ACCEPTANCE CRITERIA: Chain-wire mesh 1800x50x2.50 to be fixed to fence post with 1.57mm tie wire._x000D_
+_x000D_
+Chain shall be tightened and securely fastened to posts at max. 400 crs and tension wires at max. 500 intervals with 2.5 dia. galv. tire wire._x000D_
+_x000D_
+3 NO. W10Z TWIN-STRAND 3.15mm DIA. WIRES TWISTED BETWEEN POSTS. TENSIONED TO 1kN.</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Visual inspection </v>
+        <v>METHOD: Visual</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FREQUENCY: Each lot </v>
+        <v>FREQUENCY: Each element</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="5"/>
@@ -1463,7 +1432,9 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+_x000D_
+Delivery dockets</v>
       </c>
       <c r="S10" t="s">
         <v>0</v>
@@ -1472,58 +1443,55 @@
         <v>Date Completed:</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>5.3 Pipe and Geotextile Installation (if required)</v>
+        <v>4.7 Bracing</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.03_x000D_
-Cl 702.09</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Pipe shall be placed centrally in the trench on the prepared bedding and held firmly in place. Slotted pipes shall be laid with the opening in the lower half of the  pipe. Pipes, geocompotises and geotextiles placed, joined and lapped in accordance with specified requirements._x000D_
-_x000D_
-_x000D_
-Attach: Suburface pipe and geotextile delievery dockets (if applicable)</v>
+        <v>ACCEPTANCE CRITERIA: 48.3 X 4 CHS brace at end bays and corners fixed each end via approved proprietary post and rail clamps._x000D_
+_x000D_
+Bracing to be installed on both sides of the fence at the fence corners.</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Visual inspection </v>
+        <v>METHOD: Visual</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FREQUENCY: Each lot </v>
+        <v>FREQUENCY: Each element</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="5"/>
@@ -1535,222 +1503,227 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+_x000D_
+Steel delivery dockts</v>
       </c>
       <c r="S11" t="s">
         <v>0</v>
       </c>
       <c r="W11" t="str">
-        <v>2.2 Granular Filter Material</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.2 Steel Columns, Cladding, Handrails, etc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>5.4 Backfill Installation (Granular Filter Material)</v>
+        <v>4.8 Refuge Installation</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.09 (g)</v>
+        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
+_x000D_
+</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Material shall be placed moist and compacted in layers not exceeding 300mm. _x000D_
-_x000D_
-The method of compaction shall be in accordance with the procedures and reviewed by the NA._x000D_
-_x000D_
-_x000D_
-Attach: Backfill Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: Refuge Access to only open from track side._x000D_
+_x000D_
+No chain wire mesh to be installed at refuge access._x000D_
+_x000D_
+Refuge Access to be located every 20m max. along the fence._x000D_
+_x000D_
+50dia PVC pipe push out bars to be installed. PVC tubes to be pushed off from track side only.</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual</v>
+        <v>METHOD: Visual/Measure</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Every 20m Max.</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE, NA</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S12" t="s">
         <v>0</v>
       </c>
       <c r="W12" t="str">
         <v>REFERENCE: IFC Drawings
-VicRoads:
-Cl 702.05
-Table 702.051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+AS41000
+AS1163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>5.5 Backfill Installation (No Fines)</v>
+        <v>4.9 Gate Post Foundation</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.09 (g)</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: All subsurface drainage beneath trafficable areas shall have no fines concrete filter medium. No-fines concrete placed and compacted within 1 hour of mixing._x000D_
-_x000D_
-Attach: Backfill Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 350mm DIA. PILE_x000D_
+1300mm DEPTH_x000D_
+1200mm POST EMBEDMENT_x000D_
+_x000D_
+101.6 x 4 CHS GATE POST._x000D_
+1200 EMBEDMENT_x000D_
+_x000D_
+32MPa Concrete</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual</v>
+        <v>METHOD: Visual/Measure</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each footing</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE, NA</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Post and Concrete Dockets</v>
       </c>
       <c r="S13" t="s">
         <v>0</v>
       </c>
       <c r="W13" t="str">
-        <v>ACCEPTANCE CRITERIA: Granular filter material:
-Filter sand to be as per IFC drawings and comply with Table 702.051 and Section 801. Supplier to be accredited with VicRoads.
-Enter: Teambinder Material Approval number
-[free text box]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: All Steel must comply with Australian Standards.
+Steel section sizes must be checked on site.
+Steel posts to be CHS with a grade of C250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>5.6 Install Pits and Flushouts</v>
+        <v>4.1 Gate Installation - Post</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.10</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Subsurface drains shall have access points at the start and finish of each run._x000D_
-_x000D_
-Subsurface drain end shall be located min. 100mm above the invert of the stormwater drainage pit outlet unless noted otherwise on drawings._x000D_
-_x000D_
-Inspection openings shall be provided between 100m and 150m intervals unless noted otherwise on drawings._x000D_
-_x000D_
-Attach: Pit and Flushout Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 3000mm nominal clear between the gate posts._x000D_
+_x000D_
+Minimum offsets from centre of the rail to the fence: 3000mm_x000D_
+Alignment tolerance: +20mm to -0 (- being closer to the track)_x000D_
+_x000D_
+Max. post height 1800mm above ground level._x000D_
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual</v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each Post</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: WP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="6"/>
@@ -1758,65 +1731,65 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Delivery Dockets</v>
       </c>
       <c r="S14" t="s">
         <v>0</v>
       </c>
       <c r="W14" t="str">
-        <v>METHOD: Verify, Document Review</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>METHOD: Document review
+Visual and Measure</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5.7</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>5.7 Marker Posts</v>
+        <v>4.11 Gate Installation - Gate</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.11</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: At all fill batter and drain outlets, supply and erect marker posts as shown on drawings_x000D_
-_x000D_
-Attach: Marker Post Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 2 NO. 1800mm (H) x 1500mm (W) ROUND TOP GATE_x000D_
+_x000D_
+MINIMUM 2 NO. FENCE BAYS MUST BE PRESENT EITHER SIDE OF GATE TO ALLOW BRACING TO BE INSTALLED.</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual</v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each outlet</v>
+        <v>FREQUENCY: Each Gate</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="5"/>
@@ -1828,62 +1801,59 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Delivery Dockets</v>
       </c>
       <c r="S15" t="s">
         <v>0</v>
       </c>
       <c r="W15" t="str">
-        <v>FREQUENCY: Each Lot prior to work start</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>FREQUENCY: All elements</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>6.1 As Built Information</v>
+        <v>5.1 Fence Height and Track Clearance</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.03</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: The invert of the sursurface drainage pipe or the geocomposite drain shall not be more than 25mm from the specified level and not more than 50mm from the specified line_x000D_
-Changes of grade shall not be abrupt, or occur at a rate exceeding 10mm in any 3m length._x000D_
-_x000D_
-Attach: Survey Conformance Report</v>
+        <v>ACCEPTANCE CRITERIA: Posts are to be checked for verticality and ensure offset is not less than required from_x000D_
+near face of post to centreline of track or as shown on alignment drawings.</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Document Review</v>
+        <v>METHOD: Measure</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
@@ -1895,307 +1865,125 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: Surveyor_x000D_
-_x000D_
-SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
       <c r="S16" t="s">
         <v>0</v>
       </c>
       <c r="W16" t="str">
-        <v>CATEGORY: HP</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6.2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>6.2 Flushing</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.09 (h)</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Flushing test shall be witnessed the NA and shall confirm that the drainage line is free of obstruction. To be completed after installation of kerb and channel, barriers and road furniture._x000D_
-_x000D_
-Attach: Flushing Tests Records</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>METHOD: Document Review</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE, NA</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
-      </c>
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="W17" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6.3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>6.3 Inspection of Subsurface Drainage - CCTV</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>REFERENCE: VicRoads:_x000D_
-Cl 702.09 (i)</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: All subsurface drainage lines shall be inspected, after the flushing test as per clause 702.09(h), and prior to placement of asphalt by an independent testing organisation using closed circuit television (CCTV) to verify that the flow of water is free from obstruction and to check for visible signs of defects._x000D_
-_x000D_
-Attach: CCTV Inspection Record</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>METHOD: Document Review</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="4"/>
-        <v>FREQUENCY: Each lot</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE, NA</v>
-      </c>
-      <c r="R18" t="str">
-        <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-      <c r="S18" t="s">
-        <v>0</v>
-      </c>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="W18" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6.4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>6.4 Non-conformance Report (NCR) Closure</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>REFERENCE: MRPA Quality Management Plan</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that This ITP Signed-off covers, have been closed in CAMs.</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>METHOD: Document Review</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="4"/>
-        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="5"/>
-        <v>CATEGORY: HP*</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
-      </c>
-      <c r="S19" t="s">
-        <v>0</v>
-      </c>
+        <v>VERIFYING DOCUMENTS: Supplier Certificate of  Compliance</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="W19" t="str">
         <v>Date Completed:</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="H20" s="1"/>
       <c r="W20" t="str">
-        <v>2.3 No Fines Concrete</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.1 Survey Set-out</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="H21" s="1"/>
       <c r="W21" t="str">
-        <v>REFERENCE: IFC Drawings
-VicRoads:
-Cl 702.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>REFERENCE: IFC Drawings</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="H22" s="1"/>
       <c r="W22" t="str">
-        <v>ACCEPTANCE CRITERIA: No Fines Concrete: 
-Shall be grade B4 in accordance with RC500.22, section 6.3 and shall comply with VicRoads Cl 702.05 (e)
-Enter: Teambinder Material Approval number
-[free text box]</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: Survey to set out the following but not limited to: existing services, post locations, refuge bays
+Offset checked against the running edge prior to
+installation of posts.</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="H23" s="1"/>
       <c r="W23" t="str">
-        <v>METHOD: Verify, Document Review</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>METHOD: Measure
+Visual</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
       <c r="W24" t="str">
-        <v>FREQUENCY: Each Lot prior to work start</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>FREQUENCY: Each element</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="I25" s="1"/>
       <c r="W25" t="str">
-        <v>CATEGORY: HP</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="W26" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>RESPONSIBILITY: Surveyor
+SE/PE</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="W27" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2205,16 +1993,16 @@
         <v>Date Completed:</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="W29" t="str">
-        <v>2.4 Geotextile Filter</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1 Excavation works</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2222,37 +2010,34 @@
       <c r="I30" s="1"/>
       <c r="W30" t="str">
         <v>REFERENCE: IFC Drawings
-VicRoads:
-Cl 702.06
-Table 702.061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+L1-CHE-STD-005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="W31" t="str">
-        <v>ACCEPTANCE CRITERIA: Geotextiles:
-Shall comply with VicRoas Cl 702.06 and Table 702.061 of the requirements for Geotextile Filter
-Enter: Teambinder Material Approval number
-[free text box]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: Excavation for post foundation must not undermine footing of existing structures.
+Follow asset owners guidelines for work around their service.
+Excavation must use Non Distructive Digging in the rail corridor</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="W32" t="str">
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Visual</v>
       </c>
     </row>
     <row r="33" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="W33" t="str">
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v>FREQUENCY:</v>
       </c>
     </row>
     <row r="34" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2045,7 @@
       <c r="D34" s="1"/>
       <c r="H34" s="1"/>
       <c r="W34" t="str">
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="35" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2053,7 @@
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
       <c r="W35" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,7 +2061,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="W36" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="37" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,7 +2074,7 @@
     <row r="38" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="W38" t="str">
-        <v>2.5 SSD Pits, Pit Lids, Flushout Risers</v>
+        <v>4.2 Ground Conditions</v>
       </c>
     </row>
     <row r="39" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,21 +2082,15 @@
       <c r="D39" s="1"/>
       <c r="H39" s="1"/>
       <c r="W39" t="str">
-        <v>REFERENCE: IFC Drawings
-SD-1051
-SD-1611
-SD-1631</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="40" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="W40" t="str">
-        <v>ACCEPTANCE CRITERIA: Subsurface drain pits: shall be Type S1 (as per SD 1611).
-Pit Lids shall be: Type M3 circular lid (as per SD 1051) for Type S1 pit.
-Flushout risers: As per VicRoads, SD 1631   
-Enter: Teambinder Material Approval number
-[free text box]</v>
+        <v>ACCEPTANCE CRITERIA: All post (fence and gate) foundations to be inspected by the site team prior to installing the posts. All foundations are to be free of water and loose material. 
+If the ground material on site does not meet the design assumptions, the Geotechnical Engineer shall be notified to determine if design change is required.</v>
       </c>
     </row>
     <row r="41" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,27 +2098,27 @@
       <c r="D41" s="1"/>
       <c r="H41" s="1"/>
       <c r="W41" t="str">
-        <v>METHOD: Verify, Document Review</v>
+        <v>METHOD: Visual</v>
       </c>
     </row>
     <row r="42" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W42" t="str">
-        <v>FREQUENCY: Each Lot prior to work start</v>
+        <v>FREQUENCY: Each post</v>
       </c>
     </row>
     <row r="43" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W43" t="str">
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="44" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W44" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="45" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W45" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="46" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,34 +2128,34 @@
     </row>
     <row r="47" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W47" t="str">
-        <v>3.1 Check for correct documentation</v>
+        <v>4.3 MTM OHW Structures</v>
       </c>
     </row>
     <row r="48" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W48" t="str">
-        <v>REFERENCE: IFC Drawings</v>
+        <v>REFERENCE: IFC Drawings
+L1-CHE-STD-005</v>
       </c>
     </row>
     <row r="49" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W49" t="str">
-        <v>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:
-- using the correct and complete set of drawings 
--all drawings are the latest revision (as per TeamBinder)</v>
+        <v>ACCEPTANCE CRITERIA: Fencing must be a minimum 2m away from OHW Structures. 
+Where temporary fence is in proximity of the OHW Structure, the OHW Structure is to be cladded with timber for a minimum height of 2.4m from ground level.</v>
       </c>
     </row>
     <row r="50" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W50" t="str">
-        <v>METHOD: Visual inspection</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="51" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W51" t="str">
-        <v>FREQUENCY: Prior to commencing any activity</v>
+        <v>FREQUENCY: Each Overhead</v>
       </c>
     </row>
     <row r="52" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W52" t="str">
-        <v>CATEGORY: WP</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="53" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2165,7 @@
     </row>
     <row r="54" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W54" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="55" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,29 +2175,37 @@
     </row>
     <row r="56" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W56" t="str">
-        <v>4.1 Survey Set Out</v>
+        <v>4.4 Fence Post Foundation</v>
       </c>
     </row>
     <row r="57" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W57" t="str">
         <v>REFERENCE: IFC Drawings
-VicRoads:
-Cl 702.03</v>
+L1-CHE-STD-005</v>
       </c>
     </row>
     <row r="58" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W58" t="str">
-        <v>ACCEPTANCE CRITERIA: Survey to set out Subsurface Drainage line.</v>
+        <v>ACCEPTANCE CRITERIA: 32MPa concrete.
+Footing to be a min. 1m clear from proposed TTC footing
+Typical Footing:
+Footing dimension 900mm deep, cross section 300mm X 300mm
+DN80 MS Pipe (88.9 X 4CHS) to be installed full depth.
+Alternative Strip Footing:
+800x800x300mm thick
+101.6 x 4.0 CHS sleeve to be cast into footing.
+150x150x5 thick base plate welded to sleeve.
+Refer to IFC drawing for reinforcement details.</v>
       </c>
     </row>
     <row r="59" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W59" t="str">
-        <v>METHOD: Visual inspection</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="60" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W60" t="str">
-        <v>FREQUENCY: Each Lot</v>
+        <v>FREQUENCY: Each footing</v>
       </c>
     </row>
     <row r="61" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,13 +2215,12 @@
     </row>
     <row r="62" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W62" t="str">
-        <v>RESPONSIBILITY: SE/Site Supervisor
-Surveyor</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="63" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W63" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Post and concrete dockets</v>
       </c>
     </row>
     <row r="64" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,46 +2230,49 @@
     </row>
     <row r="65" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W65" t="str">
-        <v>5.1 Trench Excavation</v>
+        <v>4.5 Fence Post Installation</v>
       </c>
     </row>
     <row r="66" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W66" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.08</v>
+        <v>REFERENCE: IFC Drawings
+L1-CHE-STD-005</v>
       </c>
     </row>
     <row r="67" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W67" t="str">
-        <v>ACCEPTANCE CRITERIA: The bottom of the trench shall be compacted and shall be not more than 50 mm below the specified level of the invert of the pipe.  
-There shall be no departures from the grade of the base of the trench that would allow ponding of water.  
-Excess trench excavation shall be made good by filling back to grade with compacted material of permeability similar to that of the surrounding material and any loose material shall be removed.
-The base of the trench shall be inspected by a superintendent to verify compliance with 702.08 prior to placing beding in completed excavations.</v>
+        <v>ACCEPTANCE CRITERIA: Maximum post spacing to be 2.7m ± 250mm, two spans at 1350CTRS at gates, at the ends and at Refuge bays.
+An individual fence space may be increased to Max. 3100mm locally to avois clashes with services.
+Minimum offsets from centre of the rail to the fence: 3000mm
+Alignment tolerance: +20mm to -0 (- being closer to the track)
+Max. post height 1800mm above ground level.
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</v>
       </c>
     </row>
     <row r="68" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W68" t="str">
-        <v>METHOD: Visual Inspection</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="69" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W69" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each post</v>
       </c>
     </row>
     <row r="70" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W70" t="str">
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="71" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W71" t="str">
-        <v>RESPONSIBILITY: SE, NA (Nominated Authority)</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="72" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W72" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Concrete Dockets</v>
       </c>
     </row>
     <row r="73" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,29 +2282,29 @@
     </row>
     <row r="74" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W74" t="str">
-        <v>5.2 Placement of bedding</v>
+        <v>4.6 Chain Wire Mesh Installation</v>
       </c>
     </row>
     <row r="75" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W75" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.09 c)</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="76" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W76" t="str">
-        <v>ACCEPTANCE CRITERIA: Bedding of granular filter material of thickness between 25 mm and 50mm placed across bottom of trench and screeded or graded to level.
-Attach: bedding material delivery dockets</v>
+        <v>ACCEPTANCE CRITERIA: Chain-wire mesh 1800x50x2.50 to be fixed to fence post with 1.57mm tie wire.
+Chain shall be tightened and securely fastened to posts at max. 400 crs and tension wires at max. 500 intervals with 2.5 dia. galv. tire wire.
+3 NO. W10Z TWIN-STRAND 3.15mm DIA. WIRES TWISTED BETWEEN POSTS. TENSIONED TO 1kN.</v>
       </c>
     </row>
     <row r="77" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W77" t="str">
-        <v>METHOD: Visual inspection</v>
+        <v>METHOD: Visual</v>
       </c>
     </row>
     <row r="78" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W78" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each element</v>
       </c>
     </row>
     <row r="79" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2319,8 @@
     </row>
     <row r="81" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W81" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Delivery dockets</v>
       </c>
     </row>
     <row r="82" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,30 +2330,28 @@
     </row>
     <row r="83" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W83" t="str">
-        <v>5.3 Pipe and Geotextile Installation (if required)</v>
+        <v>4.7 Bracing</v>
       </c>
     </row>
     <row r="84" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W84" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.03
-Cl 702.09</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="85" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W85" t="str">
-        <v>ACCEPTANCE CRITERIA: Pipe shall be placed centrally in the trench on the prepared bedding and held firmly in place. Slotted pipes shall be laid with the opening in the lower half of the  pipe. Pipes, geocompotises and geotextiles placed, joined and lapped in accordance with specified requirements.
-Attach: Suburface pipe and geotextile delievery dockets (if applicable)</v>
+        <v>ACCEPTANCE CRITERIA: 48.3 X 4 CHS brace at end bays and corners fixed each end via approved proprietary post and rail clamps.
+Bracing to be installed on both sides of the fence at the fence corners.</v>
       </c>
     </row>
     <row r="86" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W86" t="str">
-        <v>METHOD: Visual inspection</v>
+        <v>METHOD: Visual</v>
       </c>
     </row>
     <row r="87" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W87" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each element</v>
       </c>
     </row>
     <row r="88" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2366,8 @@
     </row>
     <row r="90" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W90" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Steel delivery dockts</v>
       </c>
     </row>
     <row r="91" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,45 +2377,45 @@
     </row>
     <row r="92" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W92" t="str">
-        <v>5.4 Backfill Installation (Granular Filter Material)</v>
+        <v>4.8 Refuge Installation</v>
       </c>
     </row>
     <row r="93" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W93" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.09 (g)</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="94" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W94" t="str">
-        <v>ACCEPTANCE CRITERIA: Material shall be placed moist and compacted in layers not exceeding 300mm. 
-The method of compaction shall be in accordance with the procedures and reviewed by the NA.
-Attach: Backfill Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: Refuge Access to only open from track side.
+No chain wire mesh to be installed at refuge access.
+Refuge Access to be located every 20m max. along the fence.
+50dia PVC pipe push out bars to be installed. PVC tubes to be pushed off from track side only.</v>
       </c>
     </row>
     <row r="95" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W95" t="str">
-        <v>METHOD: Visual</v>
+        <v>METHOD: Visual/Measure</v>
       </c>
     </row>
     <row r="96" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W96" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Every 20m Max.</v>
       </c>
     </row>
     <row r="97" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W97" t="str">
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="98" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W98" t="str">
-        <v>RESPONSIBILITY: SE, NA</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="99" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W99" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="100" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,44 +2425,47 @@
     </row>
     <row r="101" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W101" t="str">
-        <v>5.5 Backfill Installation (No Fines)</v>
+        <v>4.9 Gate Post Foundation</v>
       </c>
     </row>
     <row r="102" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W102" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.09 (g)</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="103" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W103" t="str">
-        <v>ACCEPTANCE CRITERIA: All subsurface drainage beneath trafficable areas shall have no fines concrete filter medium. No-fines concrete placed and compacted within 1 hour of mixing.
-Attach: Backfill Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 350mm DIA. PILE
+1300mm DEPTH
+1200mm POST EMBEDMENT
+101.6 x 4 CHS GATE POST.
+1200 EMBEDMENT
+32MPa Concrete</v>
       </c>
     </row>
     <row r="104" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W104" t="str">
-        <v>METHOD: Visual</v>
+        <v>METHOD: Visual/Measure</v>
       </c>
     </row>
     <row r="105" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W105" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each footing</v>
       </c>
     </row>
     <row r="106" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W106" t="str">
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="107" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W107" t="str">
-        <v>RESPONSIBILITY: SE, NA</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="108" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W108" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Post and Concrete Dockets</v>
       </c>
     </row>
     <row r="109" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2683,36 +2475,36 @@
     </row>
     <row r="110" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W110" t="str">
-        <v>5.6 Install Pits and Flushouts</v>
+        <v>4.1 Gate Installation - Post</v>
       </c>
     </row>
     <row r="111" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W111" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.10</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="112" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W112" t="str">
-        <v>ACCEPTANCE CRITERIA: Subsurface drains shall have access points at the start and finish of each run.
-Subsurface drain end shall be located min. 100mm above the invert of the stormwater drainage pit outlet unless noted otherwise on drawings.
-Inspection openings shall be provided between 100m and 150m intervals unless noted otherwise on drawings.
-Attach: Pit and Flushout Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 3000mm nominal clear between the gate posts.
+Minimum offsets from centre of the rail to the fence: 3000mm
+Alignment tolerance: +20mm to -0 (- being closer to the track)
+Max. post height 1800mm above ground level.
+Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</v>
       </c>
     </row>
     <row r="113" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W113" t="str">
-        <v>METHOD: Visual</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="114" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W114" t="str">
-        <v>FREQUENCY: Each lot</v>
+        <v>FREQUENCY: Each Post</v>
       </c>
     </row>
     <row r="115" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W115" t="str">
-        <v>CATEGORY: WP</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="116" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,7 +2514,7 @@
     </row>
     <row r="117" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W117" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Delivery Dockets</v>
       </c>
     </row>
     <row r="118" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,29 +2524,28 @@
     </row>
     <row r="119" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W119" t="str">
-        <v>5.7 Marker Posts</v>
+        <v>4.11 Gate Installation - Gate</v>
       </c>
     </row>
     <row r="120" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W120" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.11</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="121" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W121" t="str">
-        <v>ACCEPTANCE CRITERIA: At all fill batter and drain outlets, supply and erect marker posts as shown on drawings
-Attach: Marker Post Delivery Dockets</v>
+        <v>ACCEPTANCE CRITERIA: 2 NO. 1800mm (H) x 1500mm (W) ROUND TOP GATE
+MINIMUM 2 NO. FENCE BAYS MUST BE PRESENT EITHER SIDE OF GATE TO ALLOW BRACING TO BE INSTALLED.</v>
       </c>
     </row>
     <row r="122" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W122" t="str">
-        <v>METHOD: Visual</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="123" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W123" t="str">
-        <v>FREQUENCY: Each outlet</v>
+        <v>FREQUENCY: Each Gate</v>
       </c>
     </row>
     <row r="124" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2769,7 +2560,7 @@
     </row>
     <row r="126" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W126" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: Delivery Dockets</v>
       </c>
     </row>
     <row r="127" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,25 +2570,23 @@
     </row>
     <row r="128" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W128" t="str">
-        <v>6.1 As Built Information</v>
+        <v>5.1 Fence Height and Track Clearance</v>
       </c>
     </row>
     <row r="129" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W129" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.03</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="130" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W130" t="str">
-        <v>ACCEPTANCE CRITERIA: The invert of the sursurface drainage pipe or the geocomposite drain shall not be more than 25mm from the specified level and not more than 50mm from the specified line
-Changes of grade shall not be abrupt, or occur at a rate exceeding 10mm in any 3m length.
-Attach: Survey Conformance Report</v>
+        <v>ACCEPTANCE CRITERIA: Posts are to be checked for verticality and ensure offset is not less than required from
+near face of post to centreline of track or as shown on alignment drawings.</v>
       </c>
     </row>
     <row r="131" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W131" t="str">
-        <v>METHOD: Document Review</v>
+        <v>METHOD: Measure</v>
       </c>
     </row>
     <row r="132" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,156 +2601,16 @@
     </row>
     <row r="134" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W134" t="str">
-        <v>RESPONSIBILITY: Surveyor
-SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE/Site Supervisor</v>
       </c>
     </row>
     <row r="135" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W135" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="136" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W136" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="137" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W137" t="str">
-        <v>6.2 Flushing</v>
-      </c>
-    </row>
-    <row r="138" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W138" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.09 (h)</v>
-      </c>
-    </row>
-    <row r="139" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W139" t="str">
-        <v>ACCEPTANCE CRITERIA: Flushing test shall be witnessed the NA and shall confirm that the drainage line is free of obstruction. To be completed after installation of kerb and channel, barriers and road furniture.
-Attach: Flushing Tests Records</v>
-      </c>
-    </row>
-    <row r="140" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W140" t="str">
-        <v>METHOD: Document Review</v>
-      </c>
-    </row>
-    <row r="141" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W141" t="str">
-        <v>FREQUENCY: Each lot</v>
-      </c>
-    </row>
-    <row r="142" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W142" t="str">
-        <v>CATEGORY: HP</v>
-      </c>
-    </row>
-    <row r="143" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W143" t="str">
-        <v>RESPONSIBILITY: SE, NA</v>
-      </c>
-    </row>
-    <row r="144" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W144" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="145" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W145" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="146" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W146" t="str">
-        <v>6.3 Inspection of Subsurface Drainage - CCTV</v>
-      </c>
-    </row>
-    <row r="147" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W147" t="str">
-        <v>REFERENCE: VicRoads:
-Cl 702.09 (i)</v>
-      </c>
-    </row>
-    <row r="148" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W148" t="str">
-        <v>ACCEPTANCE CRITERIA: All subsurface drainage lines shall be inspected, after the flushing test as per clause 702.09(h), and prior to placement of asphalt by an independent testing organisation using closed circuit television (CCTV) to verify that the flow of water is free from obstruction and to check for visible signs of defects.
-Attach: CCTV Inspection Record</v>
-      </c>
-    </row>
-    <row r="149" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W149" t="str">
-        <v>METHOD: Document Review</v>
-      </c>
-    </row>
-    <row r="150" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W150" t="str">
-        <v>FREQUENCY: Each lot</v>
-      </c>
-    </row>
-    <row r="151" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W151" t="str">
-        <v>CATEGORY: HP</v>
-      </c>
-    </row>
-    <row r="152" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W152" t="str">
-        <v>RESPONSIBILITY: SE, NA</v>
-      </c>
-    </row>
-    <row r="153" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W153" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="154" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W154" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="155" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W155" t="str">
-        <v>6.4 Non-conformance Report (NCR) Closure</v>
-      </c>
-    </row>
-    <row r="156" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W156" t="str">
-        <v>REFERENCE: MRPA Quality Management Plan</v>
-      </c>
-    </row>
-    <row r="157" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W157" t="str">
-        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that This ITP Signed-off covers, have been closed in CAMs.</v>
-      </c>
-    </row>
-    <row r="158" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W158" t="str">
-        <v>METHOD: Document Review</v>
-      </c>
-    </row>
-    <row r="159" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W159" t="str">
-        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
-      </c>
-    </row>
-    <row r="160" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W160" t="str">
-        <v>CATEGORY: HP*</v>
-      </c>
-    </row>
-    <row r="161" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W161" t="str">
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
-      </c>
-    </row>
-    <row r="162" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W162" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed-off</v>
-      </c>
-    </row>
-    <row r="163" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W163" t="str">
         <v>Date Completed:</v>
       </c>
     </row>
